--- a/Transcom-Tagamo3-DataBase/Tagamoa-DtataBases/DataBase_Tagamoa - Copy.xlsx
+++ b/Transcom-Tagamo3-DataBase/Tagamoa-DtataBases/DataBase_Tagamoa - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="695">
   <si>
     <t>رقم الموظف</t>
   </si>
@@ -178,6 +178,12 @@
     <t>الاء البطش</t>
   </si>
   <si>
+    <t>هايبر 1</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
     <t>الاء ممدوح غنيم</t>
   </si>
   <si>
@@ -236,12 +242,6 @@
   </si>
   <si>
     <t>توفيق عزت توفيق</t>
-  </si>
-  <si>
-    <t>هايبر 1</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
   </si>
   <si>
     <t>تيم ليدر - طارق ابراهيم</t>
@@ -1822,6 +1822,132 @@
     <t>يارا ايهاب</t>
   </si>
   <si>
+    <t>جون مدحت</t>
+  </si>
+  <si>
+    <t>John Medhat</t>
+  </si>
+  <si>
+    <t>احمد نبيل</t>
+  </si>
+  <si>
+    <t>1225945969 / 01119986050</t>
+  </si>
+  <si>
+    <t>Ahmed Nabil</t>
+  </si>
+  <si>
+    <t>طارق عاطف</t>
+  </si>
+  <si>
+    <t>Tarek Atef</t>
+  </si>
+  <si>
+    <t>مينا كارل</t>
+  </si>
+  <si>
+    <t>Mina Carl</t>
+  </si>
+  <si>
+    <t>خالد وليد</t>
+  </si>
+  <si>
+    <t>Khaled Waleed</t>
+  </si>
+  <si>
+    <t>روان سامح</t>
+  </si>
+  <si>
+    <t>Rawan Sameh</t>
+  </si>
+  <si>
+    <t>شريف سيد</t>
+  </si>
+  <si>
+    <t>Sherif Sayed</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>Mennat Allah Magdy</t>
+  </si>
+  <si>
+    <t>ميدان المحكمة</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>عبدالرحمن سليمان</t>
+  </si>
+  <si>
+    <t>Abdulrahman Suliman</t>
+  </si>
+  <si>
+    <t>بسنت أحمد سمير</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>مريم ابو بكر</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>مهاب علاء</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>آية علي</t>
+  </si>
+  <si>
+    <t>Aya Ali</t>
+  </si>
+  <si>
+    <t>احمد مجدي</t>
+  </si>
+  <si>
+    <t>Ahmed Magdy</t>
+  </si>
+  <si>
+    <t>ماهر علي دهب</t>
+  </si>
+  <si>
+    <t>1212874368 / 967777756816</t>
+  </si>
+  <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>ابراهيم بلة</t>
+  </si>
+  <si>
+    <t>1505852821 / 255749772862</t>
+  </si>
+  <si>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>عائشه محمد</t>
+  </si>
+  <si>
+    <t>1555175582 / 1107578879</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
     <t>HR ID</t>
   </si>
   <si>
@@ -1946,6 +2072,27 @@
   </si>
   <si>
     <t>Youssef Eltokhy</t>
+  </si>
+  <si>
+    <t>Omar Ashraf</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdelalim</t>
+  </si>
+  <si>
+    <t>Amen Abdalhay</t>
+  </si>
+  <si>
+    <t>Karim Ali</t>
+  </si>
+  <si>
+    <t>Moaz Mostafa</t>
+  </si>
+  <si>
+    <t>Farah Lotfy</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Abdelaziz</t>
   </si>
   <si>
     <t>No ID</t>
@@ -3299,71 +3446,71 @@
     </dxf>
   </dxfs>
   <tableStyles count="17" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{8568CD50-6863-4AD3-958D-602BAEF892CD}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{B04A58D8-8E0A-4E3D-83A2-8770739C0C4A}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{165290F9-9C35-436D-9801-CB874BE8D6C0}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{C371B496-20AE-492E-BC68-BCA7B6C6C1D8}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{C3449847-AC46-4962-B3FE-C14CBF6A8108}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{F0C06FF2-A587-4355-98BD-4B2F65F07CE8}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{B7EF5FC2-A4C5-485D-B2A4-996DB1789347}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{6AD621F8-99DB-4ABF-942B-77EE8908DB81}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{21EE5704-A058-4F54-8F08-5967FF0E0763}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{674B44BA-299E-46AE-ABB7-F55C88374038}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{4A014F3D-0D04-4A22-95D6-1C6E5AA07D0B}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{D3A6D553-666C-449C-B82C-36A2DD9ADC9C}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{719FCFFD-E3D4-4E03-8AE1-3934D86A24A2}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{4EF4CCF2-F218-4F4D-B706-65E9626FF999}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{A8A395C3-E634-4146-A12A-2757D6F5AB98}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{E39C195F-F1B1-4781-A482-46958E455883}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{2E4BECDE-CB8F-4FB6-86CF-599B90A4DDD0}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{1749B77C-C487-4036-8A35-2DD019D8A266}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{4514323C-1B55-45D2-AD75-0C88098F14F3}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{1575A6E9-4F62-482E-9DF3-3798BEA495AD}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{EC4812C3-6CCF-46F2-AB12-EAC93863FC6A}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{8F30B0F8-C4E0-4270-8897-74878879ABFA}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{8DD1F341-EE13-48D0-A8BA-4319D5EF5D0F}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{2E5622FC-236A-4C94-986E-84E1C527EA59}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{C837ECF0-B5FF-45EF-B4B0-3E3E793AD703}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{7F4A39C1-F57B-4A1B-AEB9-C5021F27E490}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{97E5B192-A810-4832-BE78-B384265DF056}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{2F337F61-0E64-41AF-BD89-BFD8E433AAF6}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{9C7A4B02-8B48-49E9-8DC0-634F0DBD847A}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{8D2D12A7-12B8-466E-B6E5-D2787F3378C4}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{294CB93B-4740-4CE0-B28D-2232A4C03A01}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{6E745237-A67D-4749-8B71-3BA9DDAF076D}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{3ACB1CE8-E854-4C61-B31C-EDB5CBD55036}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{FFE1CD5E-C409-4A02-810F-4EE630680466}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
@@ -3756,8 +3903,8 @@
   <sheetPr/>
   <dimension ref="A1:H2461"/>
   <sheetViews>
-    <sheetView topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="A416" sqref="$A416:$XFD416"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:F436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4048,13 +4195,13 @@
         <v>10323638</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="40">
         <v>1017261898</v>
@@ -4065,13 +4212,13 @@
         <v>10318428</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="40">
         <v>1067251838</v>
@@ -4082,13 +4229,13 @@
         <v>10272259</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="40">
         <v>1121171477</v>
@@ -4105,7 +4252,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="40">
         <v>1123878834</v>
@@ -4116,13 +4263,13 @@
         <v>10252924</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E21" s="40">
         <v>1061787517</v>
@@ -4139,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="40">
         <v>1006596860</v>
@@ -4156,7 +4303,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23" s="40">
         <v>1140262890</v>
@@ -4167,13 +4314,13 @@
         <v>10326133</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="40">
         <v>1007497277</v>
@@ -4184,13 +4331,13 @@
         <v>10320412</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="40">
         <v>1096289176</v>
@@ -4201,13 +4348,13 @@
         <v>10320418</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E26" s="40">
         <v>1026005147</v>
@@ -4218,13 +4365,13 @@
         <v>10318879</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="40">
         <v>1273931231</v>
@@ -4235,10 +4382,10 @@
         <v>10227722</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>66</v>
@@ -4269,10 +4416,10 @@
         <v>10252926</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>70</v>
@@ -4303,7 +4450,7 @@
         <v>10319077</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>22</v>
@@ -4439,7 +4586,7 @@
         <v>10323646</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>22</v>
@@ -4707,7 +4854,7 @@
         <v>10318929</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>22</v>
@@ -4741,10 +4888,10 @@
         <v>10286678</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>119</v>
@@ -4795,7 +4942,7 @@
         <v>123</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>124</v>
@@ -4843,7 +4990,7 @@
         <v>10317384</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>15</v>
@@ -5033,7 +5180,7 @@
         <v>147</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>148</v>
@@ -5098,7 +5245,7 @@
         <v>10325113</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>22</v>
@@ -5217,7 +5364,7 @@
         <v>10320414</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>26</v>
@@ -5305,7 +5452,7 @@
         <v>147</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D91" s="39" t="s">
         <v>168</v>
@@ -5319,7 +5466,7 @@
         <v>10318882</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C92" s="39" t="s">
         <v>9</v>
@@ -5606,7 +5753,7 @@
         <v>10318932</v>
       </c>
       <c r="B109" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C109" s="39" t="s">
         <v>15</v>
@@ -5674,7 +5821,7 @@
         <v>10294264</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>26</v>
@@ -5861,10 +6008,10 @@
         <v>10316680</v>
       </c>
       <c r="B124" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D124" s="39" t="s">
         <v>207</v>
@@ -6065,7 +6212,7 @@
         <v>10275375</v>
       </c>
       <c r="B136" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C136" s="39" t="s">
         <v>26</v>
@@ -6116,7 +6263,7 @@
         <v>10320409</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>26</v>
@@ -6248,10 +6395,10 @@
         <v>10317383</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C147" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D147" s="39" t="s">
         <v>235</v>
@@ -6266,7 +6413,7 @@
         <v>236</v>
       </c>
       <c r="C148" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D148" s="39" t="s">
         <v>237</v>
@@ -6283,7 +6430,7 @@
         <v>236</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D149" s="39" t="s">
         <v>238</v>
@@ -6300,7 +6447,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D150" s="39" t="s">
         <v>239</v>
@@ -6348,7 +6495,7 @@
         <v>10282174</v>
       </c>
       <c r="B153" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C153" s="39" t="s">
         <v>9</v>
@@ -6450,7 +6597,7 @@
         <v>10324482</v>
       </c>
       <c r="B159" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C159" s="39" t="s">
         <v>9</v>
@@ -6518,10 +6665,10 @@
         <v>10293907</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D163" s="42" t="s">
         <v>254</v>
@@ -6654,10 +6801,10 @@
         <v>10327296</v>
       </c>
       <c r="B171" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C171" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D171" s="39" t="s">
         <v>264</v>
@@ -6756,7 +6903,7 @@
         <v>10327293</v>
       </c>
       <c r="B177" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C177" s="39" t="s">
         <v>22</v>
@@ -7075,7 +7222,7 @@
         <v>10307944</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C196" s="39" t="s">
         <v>9</v>
@@ -7126,7 +7273,7 @@
         <v>10320447</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C199" s="39" t="s">
         <v>15</v>
@@ -7330,7 +7477,7 @@
         <v>10303783</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C211" s="39" t="s">
         <v>26</v>
@@ -7364,10 +7511,10 @@
         <v>10299512</v>
       </c>
       <c r="B213" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C213" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D213" s="39" t="s">
         <v>314</v>
@@ -7586,7 +7733,7 @@
         <v>236</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D226" s="39" t="s">
         <v>329</v>
@@ -7654,7 +7801,7 @@
         <v>123</v>
       </c>
       <c r="C230" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D230" s="39" t="s">
         <v>336</v>
@@ -7702,10 +7849,10 @@
         <v>10278358</v>
       </c>
       <c r="B233" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C233" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D233" s="39" t="s">
         <v>339</v>
@@ -7790,7 +7937,7 @@
         <v>147</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D238" s="39" t="s">
         <v>345</v>
@@ -8162,7 +8309,7 @@
         <v>10329247</v>
       </c>
       <c r="B260" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C260" s="39" t="s">
         <v>9</v>
@@ -8284,10 +8431,10 @@
         <v>10329290</v>
       </c>
       <c r="B267" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C267" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D267" s="39" t="s">
         <v>380</v>
@@ -8437,7 +8584,7 @@
         <v>10329222</v>
       </c>
       <c r="B276" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C276" s="39" t="s">
         <v>9</v>
@@ -8522,7 +8669,7 @@
         <v>10329240</v>
       </c>
       <c r="B281" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C281" s="39" t="s">
         <v>22</v>
@@ -8624,10 +8771,10 @@
         <v>10329910</v>
       </c>
       <c r="B287" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C287" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D287" s="39" t="s">
         <v>403</v>
@@ -8695,7 +8842,7 @@
         <v>147</v>
       </c>
       <c r="C291" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D291" s="39" t="s">
         <v>409</v>
@@ -8709,10 +8856,10 @@
         <v>10330140</v>
       </c>
       <c r="B292" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C292" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D292" s="39" t="s">
         <v>410</v>
@@ -8726,7 +8873,7 @@
         <v>10330144</v>
       </c>
       <c r="B293" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C293" s="39" t="s">
         <v>22</v>
@@ -8862,7 +9009,7 @@
         <v>10303715</v>
       </c>
       <c r="B301" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C301" s="39" t="s">
         <v>9</v>
@@ -8882,7 +9029,7 @@
         <v>147</v>
       </c>
       <c r="C302" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D302" s="39" t="s">
         <v>422</v>
@@ -9236,10 +9383,10 @@
         <v>10331654</v>
       </c>
       <c r="B323" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C323" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D323" s="39" t="s">
         <v>447</v>
@@ -9253,7 +9400,7 @@
         <v>10331652</v>
       </c>
       <c r="B324" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C324" s="39" t="s">
         <v>22</v>
@@ -9729,10 +9876,10 @@
         <v>10331487</v>
       </c>
       <c r="B352" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C352" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D352" s="39" t="s">
         <v>482</v>
@@ -10017,7 +10164,7 @@
         <v>147</v>
       </c>
       <c r="C369" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D369" s="39" t="s">
         <v>503</v>
@@ -10031,10 +10178,10 @@
         <v>10297502</v>
       </c>
       <c r="B370" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C370" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D370" s="39" t="s">
         <v>504</v>
@@ -10063,10 +10210,10 @@
         <v>10316242</v>
       </c>
       <c r="B372" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C372" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D372" s="39" t="s">
         <v>507</v>
@@ -10080,10 +10227,10 @@
         <v>10323544</v>
       </c>
       <c r="B373" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C373" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D373" s="39" t="s">
         <v>508</v>
@@ -10300,10 +10447,10 @@
         <v>10332567</v>
       </c>
       <c r="B385" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C385" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D385" s="39" t="s">
         <v>529</v>
@@ -10520,10 +10667,10 @@
         <v>10332517</v>
       </c>
       <c r="B396" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C396" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D396" s="39" t="s">
         <v>553</v>
@@ -10540,7 +10687,7 @@
         <v>10332557</v>
       </c>
       <c r="B397" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C397" s="39" t="s">
         <v>9</v>
@@ -10558,7 +10705,7 @@
         <v>10332639</v>
       </c>
       <c r="B398" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C398" s="39" t="s">
         <v>9</v>
@@ -10718,7 +10865,7 @@
         <v>147</v>
       </c>
       <c r="C406" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D406" s="39" t="s">
         <v>575</v>
@@ -10773,7 +10920,7 @@
         <v>147</v>
       </c>
       <c r="C409" s="39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D409" s="39" t="s">
         <v>582</v>
@@ -10901,145 +11048,405 @@
         <v>1127552530</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
-      <c r="A417" s="39"/>
-      <c r="B417" s="39"/>
-      <c r="C417" s="39"/>
-      <c r="D417" s="39"/>
-      <c r="E417" s="40"/>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="39"/>
-      <c r="B418" s="39"/>
-      <c r="C418" s="39"/>
-      <c r="D418" s="39"/>
-      <c r="E418" s="40"/>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419" s="39"/>
-      <c r="B419" s="39"/>
-      <c r="C419" s="39"/>
-      <c r="D419" s="39"/>
-      <c r="E419" s="40"/>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420" s="39"/>
-      <c r="B420" s="39"/>
-      <c r="C420" s="39"/>
-      <c r="D420" s="39"/>
-      <c r="E420" s="40"/>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="39"/>
-      <c r="B421" s="39"/>
-      <c r="C421" s="39"/>
-      <c r="D421" s="39"/>
-      <c r="E421" s="40"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="39"/>
-      <c r="B422" s="39"/>
-      <c r="C422" s="39"/>
-      <c r="D422" s="39"/>
-      <c r="E422" s="40"/>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423" s="39"/>
-      <c r="B423" s="39"/>
-      <c r="C423" s="39"/>
-      <c r="D423" s="39"/>
-      <c r="E423" s="40"/>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="A424" s="39"/>
-      <c r="B424" s="39"/>
-      <c r="C424" s="39"/>
-      <c r="D424" s="39"/>
-      <c r="E424" s="40"/>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="39"/>
-      <c r="B425" s="39"/>
-      <c r="C425" s="39"/>
-      <c r="D425" s="39"/>
-      <c r="E425" s="40"/>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="A426" s="39"/>
-      <c r="B426" s="39"/>
-      <c r="C426" s="39"/>
-      <c r="D426" s="39"/>
-      <c r="E426" s="40"/>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" s="39"/>
-      <c r="B427" s="39"/>
-      <c r="C427" s="39"/>
-      <c r="D427" s="39"/>
-      <c r="E427" s="40"/>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="A428" s="39"/>
-      <c r="B428" s="39"/>
-      <c r="C428" s="39"/>
-      <c r="D428" s="39"/>
-      <c r="E428" s="40"/>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" s="39"/>
-      <c r="B429" s="39"/>
-      <c r="C429" s="39"/>
-      <c r="D429" s="39"/>
-      <c r="E429" s="40"/>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="39"/>
-      <c r="B430" s="39"/>
-      <c r="C430" s="39"/>
-      <c r="D430" s="39"/>
-      <c r="E430" s="40"/>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="A431" s="39"/>
-      <c r="B431" s="39"/>
-      <c r="C431" s="39"/>
-      <c r="D431" s="39"/>
-      <c r="E431" s="40"/>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="39"/>
-      <c r="B432" s="39"/>
-      <c r="C432" s="39"/>
-      <c r="D432" s="39"/>
-      <c r="E432" s="40"/>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="A433" s="39"/>
-      <c r="B433" s="39"/>
-      <c r="C433" s="39"/>
-      <c r="D433" s="39"/>
-      <c r="E433" s="40"/>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="A434" s="39"/>
-      <c r="B434" s="39"/>
-      <c r="C434" s="39"/>
-      <c r="D434" s="39"/>
-      <c r="E434" s="40"/>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="39"/>
-      <c r="B435" s="39"/>
-      <c r="C435" s="39"/>
-      <c r="D435" s="39"/>
-      <c r="E435" s="40"/>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="39"/>
-      <c r="B436" s="39"/>
-      <c r="C436" s="39"/>
-      <c r="D436" s="39"/>
-      <c r="E436" s="40"/>
+    <row r="417" spans="1:6">
+      <c r="A417" s="39">
+        <v>10331412</v>
+      </c>
+      <c r="B417" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C417" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D417" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="E417" s="40">
+        <v>1281804393</v>
+      </c>
+      <c r="F417" s="37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="39">
+        <v>10331413</v>
+      </c>
+      <c r="B418" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C418" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D418" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="E418" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="F418" s="37" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="39">
+        <v>10331414</v>
+      </c>
+      <c r="B419" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="E419" s="40">
+        <v>1117144455</v>
+      </c>
+      <c r="F419" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="39">
+        <v>10322712</v>
+      </c>
+      <c r="B420" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C420" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="E420" s="40">
+        <v>1152621423</v>
+      </c>
+      <c r="F420" s="37" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="39">
+        <v>10331426</v>
+      </c>
+      <c r="B421" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C421" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D421" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E421" s="40">
+        <v>1124220159</v>
+      </c>
+      <c r="F421" s="37" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="39">
+        <v>10331422</v>
+      </c>
+      <c r="B422" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C422" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D422" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="E422" s="40">
+        <v>1110071185</v>
+      </c>
+      <c r="F422" s="37" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="39">
+        <v>10331421</v>
+      </c>
+      <c r="B423" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C423" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D423" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E423" s="40">
+        <v>1013030118</v>
+      </c>
+      <c r="F423" s="37" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="39">
+        <v>10333437</v>
+      </c>
+      <c r="B424" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C424" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D424" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="E424" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="F424" s="37" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="39">
+        <v>10333354</v>
+      </c>
+      <c r="B425" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C425" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D425" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E425" s="40">
+        <v>1026846805</v>
+      </c>
+      <c r="F425" s="37" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="39">
+        <v>10333396</v>
+      </c>
+      <c r="B426" s="39" t="s">
+        <v>609</v>
+      </c>
+      <c r="C426" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D426" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="E426" s="40">
+        <v>1060459705</v>
+      </c>
+      <c r="F426" s="37" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="39">
+        <v>10333385</v>
+      </c>
+      <c r="B427" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="E427" s="40">
+        <v>1025613339</v>
+      </c>
+      <c r="F427" s="37" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="39">
+        <v>10333416</v>
+      </c>
+      <c r="B428" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C428" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D428" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="E428" s="40">
+        <v>1270058439</v>
+      </c>
+      <c r="F428" s="37" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="39">
+        <v>10333417</v>
+      </c>
+      <c r="B429" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C429" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D429" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="E429" s="40">
+        <v>1019687588</v>
+      </c>
+      <c r="F429" s="37" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" s="39">
+        <v>10333426</v>
+      </c>
+      <c r="B430" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C430" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D430" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="E430" s="40">
+        <v>1097696568</v>
+      </c>
+      <c r="F430" s="37" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="39">
+        <v>10333432</v>
+      </c>
+      <c r="B431" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C431" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D431" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="E431" s="40">
+        <v>1091247732</v>
+      </c>
+      <c r="F431" s="37" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="39">
+        <v>10333433</v>
+      </c>
+      <c r="B432" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C432" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D432" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="E432" s="40">
+        <v>1004788915</v>
+      </c>
+      <c r="F432" s="37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="39">
+        <v>10333434</v>
+      </c>
+      <c r="B433" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C433" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D433" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="E433" s="40">
+        <v>1032409151</v>
+      </c>
+      <c r="F433" s="37" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="39">
+        <v>10333435</v>
+      </c>
+      <c r="B434" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C434" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D434" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="E434" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="F434" s="37" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="39">
+        <v>10333439</v>
+      </c>
+      <c r="B435" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C435" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D435" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="E435" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="F435" s="37" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="39">
+        <v>10333436</v>
+      </c>
+      <c r="B436" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C436" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D436" s="39" t="s">
+        <v>631</v>
+      </c>
+      <c r="E436" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="F436" s="37" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="39"/>
@@ -25254,10 +25661,10 @@
   <sheetPr/>
   <dimension ref="A1:I1032"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C2:I36"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="$A55:$XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="18.5"/>
@@ -25277,28 +25684,28 @@
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:9">
       <c r="A1" s="30" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
@@ -25309,7 +25716,7 @@
         <v>10314789</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="C2" s="34">
         <v>0.458333333333333</v>
@@ -25343,7 +25750,7 @@
         <v>10250874</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="C3" s="34">
         <v>0.458333333333333</v>
@@ -25377,13 +25784,13 @@
         <v>10259973</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="E4" s="30">
         <f>IFERROR(VLOOKUP(A4,New!A:E,5,0),"لا يوجد مواعيد")</f>
@@ -25411,7 +25818,7 @@
         <v>10225640</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="C5" s="34">
         <v>0.458333333333333</v>
@@ -25445,13 +25852,13 @@
         <v>10316685</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="E6" s="30" t="str">
         <f>IFERROR(VLOOKUP(A6,New!A:E,5,0),"لا يوجد مواعيد")</f>
@@ -25479,13 +25886,13 @@
         <v>10316538</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="E7" s="30">
         <f>IFERROR(VLOOKUP(A7,New!A:E,5,0),"لا يوجد مواعيد")</f>
@@ -25513,13 +25920,13 @@
         <v>10303312</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="E8" s="30">
         <f>IFERROR(VLOOKUP(A8,New!A:E,5,0),"لا يوجد مواعيد")</f>
@@ -25547,7 +25954,7 @@
         <v>10306591</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="C9" s="34">
         <v>0.458333333333333</v>
@@ -25581,7 +25988,7 @@
         <v>10281100</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="C10" s="34">
         <v>0.333333333333333</v>
@@ -25615,7 +26022,7 @@
         <v>10273387</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="C11" s="34">
         <v>0.333333333333333</v>
@@ -25649,7 +26056,7 @@
         <v>10303715</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="C12" s="34">
         <v>0.333333333333333</v>
@@ -25683,7 +26090,7 @@
         <v>10323547</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="C13" s="34">
         <v>0.333333333333333</v>
@@ -25717,7 +26124,7 @@
         <v>10326484</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="C14" s="34">
         <v>0.333333333333333</v>
@@ -25751,7 +26158,7 @@
         <v>10327594</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="C15" s="34">
         <v>0.333333333333333</v>
@@ -25785,7 +26192,7 @@
         <v>10327588</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="C16" s="34">
         <v>0.333333333333333</v>
@@ -25819,7 +26226,7 @@
         <v>10329911</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="C17" s="34">
         <v>0.333333333333333</v>
@@ -25853,7 +26260,7 @@
         <v>10330150</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="C18" s="34">
         <v>0.333333333333333</v>
@@ -25887,7 +26294,7 @@
         <v>10330149</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="C19" s="34">
         <v>0.333333333333333</v>
@@ -25921,7 +26328,7 @@
         <v>10329943</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="C20" s="34">
         <v>0.333333333333333</v>
@@ -25955,7 +26362,7 @@
         <v>10320448</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="C21" s="34">
         <v>0.458333333333333</v>
@@ -25989,7 +26396,7 @@
         <v>10324431</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="C22" s="34">
         <v>0.458333333333333</v>
@@ -26023,7 +26430,7 @@
         <v>10330637</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="C23" s="34">
         <v>0.458333333333333</v>
@@ -26057,7 +26464,7 @@
         <v>10314763</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="C24" s="34">
         <v>0.583333333333333</v>
@@ -26091,7 +26498,7 @@
         <v>10327247</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="C25" s="34">
         <v>0.458333333333333</v>
@@ -26125,7 +26532,7 @@
         <v>10295555</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="C26" s="34">
         <v>0.458333333333333</v>
@@ -26159,7 +26566,7 @@
         <v>10327358</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="C27" s="34">
         <v>0.458333333333333</v>
@@ -26193,7 +26600,7 @@
         <v>10327225</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="C28" s="34">
         <v>0.416666666666667</v>
@@ -26227,7 +26634,7 @@
         <v>10269211</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="C29" s="34">
         <v>0.458333333333333</v>
@@ -26261,7 +26668,7 @@
         <v>10327295</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="C30" s="34">
         <v>0.458333333333333</v>
@@ -26295,7 +26702,7 @@
         <v>10327255</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="C31" s="34">
         <v>0.458333333333333</v>
@@ -26329,7 +26736,7 @@
         <v>10327301</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="C32" s="34">
         <v>0.416666666666667</v>
@@ -26363,7 +26770,7 @@
         <v>10327292</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="C33" s="34">
         <v>0.458333333333333</v>
@@ -26397,7 +26804,7 @@
         <v>10327294</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="C34" s="34">
         <v>0.458333333333333</v>
@@ -26431,7 +26838,7 @@
         <v>10327224</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="C35" s="34">
         <v>0.458333333333333</v>
@@ -26465,7 +26872,7 @@
         <v>10320409</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="C36" s="34">
         <v>0.458333333333333</v>
@@ -26521,10 +26928,18 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="A38" s="33">
+        <v>10333398</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="C38" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0.166666666666667</v>
+      </c>
       <c r="E38" s="30" t="str">
         <f>IFERROR(VLOOKUP(A38,New!A:E,5,0),"لا يوجد مواعيد")</f>
         <v>لا يوجد مواعيد</v>
@@ -26547,10 +26962,18 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="33">
+        <v>10333447</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="C39" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D39" s="34">
+        <v>0.166666666666667</v>
+      </c>
       <c r="E39" s="30" t="str">
         <f>IFERROR(VLOOKUP(A39,New!A:E,5,0),"لا يوجد مواعيد")</f>
         <v>لا يوجد مواعيد</v>
@@ -26573,8 +26996,12 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="33">
+        <v>10333590</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>678</v>
+      </c>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="30" t="str">
@@ -26625,55 +27052,67 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="30" t="str">
+      <c r="A42" s="33">
+        <v>10318430</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E42" s="30">
         <f>IFERROR(VLOOKUP(A42,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F42" s="30" t="str">
+        <v>1068635749</v>
+      </c>
+      <c r="F42" s="30">
         <f>IFERROR(VLOOKUP(A42,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10318430</v>
       </c>
       <c r="G42" s="30" t="str">
         <f>IFERROR(VLOOKUP(A42,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>كريم علي</v>
       </c>
       <c r="H42" s="30" t="str">
         <f>IFERROR(VLOOKUP(A42,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>الزيتون و مصر الجديدة</v>
       </c>
       <c r="I42" s="30" t="str">
         <f>IFERROR(VLOOKUP(A42,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>الف مسكن</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="33">
+        <v>10318434</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>680</v>
+      </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="30" t="str">
+      <c r="E43" s="30">
         <f>IFERROR(VLOOKUP(A43,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F43" s="30" t="str">
+        <v>1066387689</v>
+      </c>
+      <c r="F43" s="30">
         <f>IFERROR(VLOOKUP(A43,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10318434</v>
       </c>
       <c r="G43" s="30" t="str">
         <f>IFERROR(VLOOKUP(A43,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>معاذ مصطفى</v>
       </c>
       <c r="H43" s="30" t="str">
         <f>IFERROR(VLOOKUP(A43,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مدينة نصر</v>
       </c>
       <c r="I43" s="30" t="str">
         <f>IFERROR(VLOOKUP(A43,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>ميدان رابعة</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -26703,237 +27142,273 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="33">
+        <v>10305637</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>681</v>
+      </c>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="30" t="str">
+      <c r="E45" s="30">
         <f>IFERROR(VLOOKUP(A45,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F45" s="30" t="str">
+        <v>1150906706</v>
+      </c>
+      <c r="F45" s="30">
         <f>IFERROR(VLOOKUP(A45,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10305637</v>
       </c>
       <c r="G45" s="30" t="str">
         <f>IFERROR(VLOOKUP(A45,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>فرح لطفي</v>
       </c>
       <c r="H45" s="30" t="str">
         <f>IFERROR(VLOOKUP(A45,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>ي - المعادي</v>
       </c>
       <c r="I45" s="30" t="str">
         <f>IFERROR(VLOOKUP(A45,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>اكاديمية السادات</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="33">
+        <v>10322035</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>682</v>
+      </c>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
       <c r="E46" s="30" t="str">
         <f>IFERROR(VLOOKUP(A46,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F46" s="30" t="str">
+        <v>1501731733 // 1154321625</v>
+      </c>
+      <c r="F46" s="30">
         <f>IFERROR(VLOOKUP(A46,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10322035</v>
       </c>
       <c r="G46" s="30" t="str">
         <f>IFERROR(VLOOKUP(A46,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>محمد عبد العزيز</v>
       </c>
       <c r="H46" s="30" t="str">
         <f>IFERROR(VLOOKUP(A46,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>حدائق الاهرام</v>
       </c>
       <c r="I46" s="30" t="str">
         <f>IFERROR(VLOOKUP(A46,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>الفردوس</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="33">
+        <v>10331412</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>593</v>
+      </c>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="30" t="str">
+      <c r="E47" s="30">
         <f>IFERROR(VLOOKUP(A47,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F47" s="30" t="str">
+        <v>1281804393</v>
+      </c>
+      <c r="F47" s="30">
         <f>IFERROR(VLOOKUP(A47,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10331412</v>
       </c>
       <c r="G47" s="30" t="str">
         <f>IFERROR(VLOOKUP(A47,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>جون مدحت</v>
       </c>
       <c r="H47" s="30" t="str">
         <f>IFERROR(VLOOKUP(A47,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>شبرا</v>
       </c>
       <c r="I47" s="30" t="str">
         <f>IFERROR(VLOOKUP(A47,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>الخلفاوي</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="33">
+        <v>10331413</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>596</v>
+      </c>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="30" t="str">
         <f>IFERROR(VLOOKUP(A48,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F48" s="30" t="str">
+        <v>1225945969 / 01119986050</v>
+      </c>
+      <c r="F48" s="30">
         <f>IFERROR(VLOOKUP(A48,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10331413</v>
       </c>
       <c r="G48" s="30" t="str">
         <f>IFERROR(VLOOKUP(A48,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>احمد نبيل</v>
       </c>
       <c r="H48" s="30" t="str">
         <f>IFERROR(VLOOKUP(A48,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>المهندسين</v>
       </c>
       <c r="I48" s="30" t="str">
         <f>IFERROR(VLOOKUP(A48,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>كوبري الدقي</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="33">
+        <v>10331414</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>598</v>
+      </c>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="30" t="str">
+      <c r="E49" s="30">
         <f>IFERROR(VLOOKUP(A49,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F49" s="30" t="str">
+        <v>1117144455</v>
+      </c>
+      <c r="F49" s="30">
         <f>IFERROR(VLOOKUP(A49,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10331414</v>
       </c>
       <c r="G49" s="30" t="str">
         <f>IFERROR(VLOOKUP(A49,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>طارق عاطف</v>
       </c>
       <c r="H49" s="30" t="str">
         <f>IFERROR(VLOOKUP(A49,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>و - مدينتي</v>
       </c>
       <c r="I49" s="30" t="str">
         <f>IFERROR(VLOOKUP(A49,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>بوابة 1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="33">
+        <v>10322712</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>600</v>
+      </c>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="30" t="str">
+      <c r="E50" s="30">
         <f>IFERROR(VLOOKUP(A50,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F50" s="30" t="str">
+        <v>1152621423</v>
+      </c>
+      <c r="F50" s="30">
         <f>IFERROR(VLOOKUP(A50,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10322712</v>
       </c>
       <c r="G50" s="30" t="str">
         <f>IFERROR(VLOOKUP(A50,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مينا كارل</v>
       </c>
       <c r="H50" s="30" t="str">
         <f>IFERROR(VLOOKUP(A50,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>فيصل</v>
       </c>
       <c r="I50" s="30" t="str">
         <f>IFERROR(VLOOKUP(A50,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>المريوطيه</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="33">
+        <v>10331426</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>602</v>
+      </c>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="30" t="str">
+      <c r="E51" s="30">
         <f>IFERROR(VLOOKUP(A51,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F51" s="30" t="str">
+        <v>1124220159</v>
+      </c>
+      <c r="F51" s="30">
         <f>IFERROR(VLOOKUP(A51,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10331426</v>
       </c>
       <c r="G51" s="30" t="str">
         <f>IFERROR(VLOOKUP(A51,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>خالد وليد</v>
       </c>
       <c r="H51" s="30" t="str">
         <f>IFERROR(VLOOKUP(A51,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>العبور</v>
       </c>
       <c r="I51" s="30" t="str">
         <f>IFERROR(VLOOKUP(A51,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>كارفور العبور</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="33">
+        <v>10331422</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>604</v>
+      </c>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="30" t="str">
+      <c r="E52" s="30">
         <f>IFERROR(VLOOKUP(A52,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F52" s="30" t="str">
+        <v>1110071185</v>
+      </c>
+      <c r="F52" s="30">
         <f>IFERROR(VLOOKUP(A52,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10331422</v>
       </c>
       <c r="G52" s="30" t="str">
         <f>IFERROR(VLOOKUP(A52,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>روان سامح</v>
       </c>
       <c r="H52" s="30" t="str">
         <f>IFERROR(VLOOKUP(A52,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>الزيتون و مصر الجديدة</v>
       </c>
       <c r="I52" s="30" t="str">
         <f>IFERROR(VLOOKUP(A52,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>الجراج</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="33">
+        <v>10331421</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>606</v>
+      </c>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
-      <c r="E53" s="30" t="str">
+      <c r="E53" s="30">
         <f>IFERROR(VLOOKUP(A53,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F53" s="30" t="str">
+        <v>1013030118</v>
+      </c>
+      <c r="F53" s="30">
         <f>IFERROR(VLOOKUP(A53,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10331421</v>
       </c>
       <c r="G53" s="30" t="str">
         <f>IFERROR(VLOOKUP(A53,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>شريف سيد</v>
       </c>
       <c r="H53" s="30" t="str">
         <f>IFERROR(VLOOKUP(A53,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>ي - المعادي</v>
       </c>
       <c r="I53" s="30" t="str">
         <f>IFERROR(VLOOKUP(A53,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>اكاديمية السادات</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -26963,341 +27438,393 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="33">
+        <v>10333437</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>607</v>
+      </c>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="30" t="str">
         <f>IFERROR(VLOOKUP(A55,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F55" s="30" t="str">
+        <v>1121009457 // 249964844267 WPP</v>
+      </c>
+      <c r="F55" s="30">
         <f>IFERROR(VLOOKUP(A55,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333437</v>
       </c>
       <c r="G55" s="30" t="str">
         <f>IFERROR(VLOOKUP(A55,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>عفراء حاتم</v>
       </c>
       <c r="H55" s="30" t="str">
         <f>IFERROR(VLOOKUP(A55,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>م - المقطم</v>
       </c>
       <c r="I55" s="30" t="str">
         <f>IFERROR(VLOOKUP(A55,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>النافورة</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="33">
+        <v>10333354</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>608</v>
+      </c>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="30" t="str">
+      <c r="E56" s="30">
         <f>IFERROR(VLOOKUP(A56,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F56" s="30" t="str">
+        <v>1026846805</v>
+      </c>
+      <c r="F56" s="30">
         <f>IFERROR(VLOOKUP(A56,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333354</v>
       </c>
       <c r="G56" s="30" t="str">
         <f>IFERROR(VLOOKUP(A56,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>منة الله مجدي</v>
       </c>
       <c r="H56" s="30" t="str">
         <f>IFERROR(VLOOKUP(A56,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>حدائق القبة</v>
       </c>
       <c r="I56" s="30" t="str">
         <f>IFERROR(VLOOKUP(A56,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>ولي العهد</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="33">
+        <v>10333396</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>610</v>
+      </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
-      <c r="E57" s="30" t="str">
+      <c r="E57" s="30">
         <f>IFERROR(VLOOKUP(A57,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F57" s="30" t="str">
+        <v>1060459705</v>
+      </c>
+      <c r="F57" s="30">
         <f>IFERROR(VLOOKUP(A57,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333396</v>
       </c>
       <c r="G57" s="30" t="str">
         <f>IFERROR(VLOOKUP(A57,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مصطفى علاء</v>
       </c>
       <c r="H57" s="30" t="str">
         <f>IFERROR(VLOOKUP(A57,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>الزيتون و مصر الجديدة</v>
       </c>
       <c r="I57" s="30" t="str">
         <f>IFERROR(VLOOKUP(A57,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>المحكمة</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="33">
+        <v>10333385</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>612</v>
+      </c>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="30" t="str">
+      <c r="E58" s="30">
         <f>IFERROR(VLOOKUP(A58,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F58" s="30" t="str">
+        <v>1025613339</v>
+      </c>
+      <c r="F58" s="30">
         <f>IFERROR(VLOOKUP(A58,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333385</v>
       </c>
       <c r="G58" s="30" t="str">
         <f>IFERROR(VLOOKUP(A58,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>عبدالرحمن سليمان</v>
       </c>
       <c r="H58" s="30" t="str">
         <f>IFERROR(VLOOKUP(A58,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>و - مدينتي</v>
       </c>
       <c r="I58" s="30" t="str">
         <f>IFERROR(VLOOKUP(A58,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>بوابة 1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="33">
+        <v>10333416</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>614</v>
+      </c>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
-      <c r="E59" s="30" t="str">
+      <c r="E59" s="30">
         <f>IFERROR(VLOOKUP(A59,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F59" s="30" t="str">
+        <v>1270058439</v>
+      </c>
+      <c r="F59" s="30">
         <f>IFERROR(VLOOKUP(A59,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333416</v>
       </c>
       <c r="G59" s="30" t="str">
         <f>IFERROR(VLOOKUP(A59,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>بسنت أحمد سمير</v>
       </c>
       <c r="H59" s="30" t="str">
         <f>IFERROR(VLOOKUP(A59,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>العباسية و الضاهر</v>
       </c>
       <c r="I59" s="30" t="str">
         <f>IFERROR(VLOOKUP(A59,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>قسم الوايلي</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="33">
+        <v>10333417</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>616</v>
+      </c>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
-      <c r="E60" s="30" t="str">
+      <c r="E60" s="30">
         <f>IFERROR(VLOOKUP(A60,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F60" s="30" t="str">
+        <v>1019687588</v>
+      </c>
+      <c r="F60" s="30">
         <f>IFERROR(VLOOKUP(A60,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333417</v>
       </c>
       <c r="G60" s="30" t="str">
         <f>IFERROR(VLOOKUP(A60,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مريم ابو بكر</v>
       </c>
       <c r="H60" s="30" t="str">
         <f>IFERROR(VLOOKUP(A60,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>العبور</v>
       </c>
       <c r="I60" s="30" t="str">
         <f>IFERROR(VLOOKUP(A60,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>كارفور العبور</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="33">
+        <v>10333426</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>618</v>
+      </c>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
-      <c r="E61" s="30" t="str">
+      <c r="E61" s="30">
         <f>IFERROR(VLOOKUP(A61,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F61" s="30" t="str">
+        <v>1097696568</v>
+      </c>
+      <c r="F61" s="30">
         <f>IFERROR(VLOOKUP(A61,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333426</v>
       </c>
       <c r="G61" s="30" t="str">
         <f>IFERROR(VLOOKUP(A61,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مهاب علاء</v>
       </c>
       <c r="H61" s="30" t="str">
         <f>IFERROR(VLOOKUP(A61,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>حلوان و زهراء المعادي</v>
       </c>
       <c r="I61" s="30" t="str">
         <f>IFERROR(VLOOKUP(A61,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>سلم البارون</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="33">
+        <v>10333432</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>620</v>
+      </c>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
-      <c r="E62" s="30" t="str">
+      <c r="E62" s="30">
         <f>IFERROR(VLOOKUP(A62,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F62" s="30" t="str">
+        <v>1091247732</v>
+      </c>
+      <c r="F62" s="30">
         <f>IFERROR(VLOOKUP(A62,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333432</v>
       </c>
       <c r="G62" s="30" t="str">
         <f>IFERROR(VLOOKUP(A62,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مصطفى محمد</v>
       </c>
       <c r="H62" s="30" t="str">
         <f>IFERROR(VLOOKUP(A62,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>التحرير</v>
       </c>
       <c r="I62" s="30" t="str">
         <f>IFERROR(VLOOKUP(A62,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مستشفى احمد ماهر</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="33">
+        <v>10333433</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>622</v>
+      </c>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
-      <c r="E63" s="30" t="str">
+      <c r="E63" s="30">
         <f>IFERROR(VLOOKUP(A63,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F63" s="30" t="str">
+        <v>1004788915</v>
+      </c>
+      <c r="F63" s="30">
         <f>IFERROR(VLOOKUP(A63,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333433</v>
       </c>
       <c r="G63" s="30" t="str">
         <f>IFERROR(VLOOKUP(A63,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>آية علي</v>
       </c>
       <c r="H63" s="30" t="str">
         <f>IFERROR(VLOOKUP(A63,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>دائري</v>
       </c>
       <c r="I63" s="30" t="str">
         <f>IFERROR(VLOOKUP(A63,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>بهتيم</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="33">
+        <v>10333434</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>624</v>
+      </c>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
-      <c r="E64" s="30" t="str">
+      <c r="E64" s="30">
         <f>IFERROR(VLOOKUP(A64,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F64" s="30" t="str">
+        <v>1032409151</v>
+      </c>
+      <c r="F64" s="30">
         <f>IFERROR(VLOOKUP(A64,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333434</v>
       </c>
       <c r="G64" s="30" t="str">
         <f>IFERROR(VLOOKUP(A64,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>احمد مجدي</v>
       </c>
       <c r="H64" s="30" t="str">
         <f>IFERROR(VLOOKUP(A64,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>العبور</v>
       </c>
       <c r="I64" s="30" t="str">
         <f>IFERROR(VLOOKUP(A64,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>كارفور العبور</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="33">
+        <v>10333435</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>627</v>
+      </c>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="30" t="str">
         <f>IFERROR(VLOOKUP(A65,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F65" s="30" t="str">
+        <v>1212874368 / 967777756816</v>
+      </c>
+      <c r="F65" s="30">
         <f>IFERROR(VLOOKUP(A65,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333435</v>
       </c>
       <c r="G65" s="30" t="str">
         <f>IFERROR(VLOOKUP(A65,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>ماهر علي دهب</v>
       </c>
       <c r="H65" s="30" t="str">
         <f>IFERROR(VLOOKUP(A65,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مدينة نصر</v>
       </c>
       <c r="I65" s="30" t="str">
         <f>IFERROR(VLOOKUP(A65,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مسجد السلام</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="33">
+        <v>10333439</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>630</v>
+      </c>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="30" t="str">
         <f>IFERROR(VLOOKUP(A66,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F66" s="30" t="str">
+        <v>1505852821 / 255749772862</v>
+      </c>
+      <c r="F66" s="30">
         <f>IFERROR(VLOOKUP(A66,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333439</v>
       </c>
       <c r="G66" s="30" t="str">
         <f>IFERROR(VLOOKUP(A66,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>ابراهيم بلة</v>
       </c>
       <c r="H66" s="30" t="str">
         <f>IFERROR(VLOOKUP(A66,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>حلوان و زهراء المعادي</v>
       </c>
       <c r="I66" s="30" t="str">
         <f>IFERROR(VLOOKUP(A66,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>سلم البارون</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="33">
+        <v>10333436</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>633</v>
+      </c>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="E67" s="30" t="str">
         <f>IFERROR(VLOOKUP(A67,New!A:E,5,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
-      </c>
-      <c r="F67" s="30" t="str">
+        <v>1555175582 / 1107578879</v>
+      </c>
+      <c r="F67" s="30">
         <f>IFERROR(VLOOKUP(A67,New!A:E,1,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>10333436</v>
       </c>
       <c r="G67" s="30" t="str">
         <f>IFERROR(VLOOKUP(A67,New!A:F,4,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>عائشه محمد</v>
       </c>
       <c r="H67" s="30" t="str">
         <f>IFERROR(VLOOKUP(A67,New!A:G,3,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>مدينة نصر</v>
       </c>
       <c r="I67" s="30" t="str">
         <f>IFERROR(VLOOKUP(A67,New!A:H,2,0),"لا يوجد مواعيد")</f>
-        <v>لا يوجد مواعيد</v>
+        <v>كشري هند الحي العاشر</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -52442,22 +52969,22 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="31" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>1</v>
@@ -52511,10 +53038,10 @@
     </row>
     <row r="4" hidden="1" spans="2:8">
       <c r="B4" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D4" s="30">
         <v>1289622370</v>
@@ -52526,7 +53053,7 @@
         <v>148</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>147</v>
@@ -52549,7 +53076,7 @@
         <v>168</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>147</v>
@@ -52566,16 +53093,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>636</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="2:8">
@@ -52603,10 +53130,10 @@
     </row>
     <row r="8" hidden="1" spans="2:8">
       <c r="B8" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D8" s="30">
         <v>1012900031</v>
@@ -52704,24 +53231,24 @@
         <v>1206043573</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" hidden="1" spans="2:8">
       <c r="B13" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D13" s="30">
         <v>1009100931</v>
@@ -52773,10 +53300,10 @@
         <v>1126665095</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>74</v>
@@ -52787,10 +53314,10 @@
     </row>
     <row r="16" hidden="1" spans="2:8">
       <c r="B16" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>203</v>
@@ -52989,7 +53516,7 @@
         <v>9</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="2:8">
@@ -53000,13 +53527,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>81</v>
@@ -53219,7 +53746,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="2:8">
@@ -54044,11 +54571,11 @@
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:H721" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="0">
-      <filters>
-        <filter val="8:00:00 PM"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="8:00:00 PM"/>
+      </customFilters>
     </filterColumn>
-    <sortState ref="B2:H721">
+    <sortState ref="B1:H721">
       <sortCondition ref="G1"/>
     </sortState>
     <extLst/>
@@ -54065,7 +54592,7 @@
   <sheetPr/>
   <dimension ref="A1:AG407"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A384" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="65" topLeftCell="A384" workbookViewId="0">
       <selection activeCell="F390" sqref="F390"/>
     </sheetView>
   </sheetViews>
@@ -54159,25 +54686,25 @@
     <row r="3" ht="43.5" customHeight="1" spans="1:33">
       <c r="A3" s="12"/>
       <c r="B3" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="21"/>
@@ -54249,13 +54776,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>81</v>
@@ -54364,25 +54891,25 @@
     <row r="8" ht="43.5" customHeight="1" spans="1:33">
       <c r="A8" s="12"/>
       <c r="B8" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="21"/>
@@ -54557,25 +55084,25 @@
     <row r="13" ht="43.5" customHeight="1" spans="1:33">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
@@ -54748,25 +55275,25 @@
     <row r="18" ht="43.5" customHeight="1" spans="1:33">
       <c r="A18" s="9"/>
       <c r="B18" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
@@ -54939,25 +55466,25 @@
     <row r="23" ht="43.5" customHeight="1" spans="1:33">
       <c r="A23" s="12"/>
       <c r="B23" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="21"/>
@@ -55249,10 +55776,10 @@
         <v>1126665095</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>74</v>
@@ -55524,7 +56051,7 @@
         <v>9</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="21"/>
@@ -55963,25 +56490,25 @@
     <row r="47" ht="43.5" customHeight="1" spans="1:33">
       <c r="A47" s="12"/>
       <c r="B47" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="21"/>
@@ -62069,25 +62596,25 @@
     <row r="221" ht="43.5" customHeight="1" spans="1:33">
       <c r="A221" s="12"/>
       <c r="B221" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F221" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I221" s="22"/>
       <c r="J221" s="21"/>
@@ -62162,16 +62689,16 @@
         <v>0</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F223" s="15" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="G223" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>636</v>
+        <v>685</v>
       </c>
       <c r="I223" s="22"/>
       <c r="J223" s="21"/>
@@ -63688,25 +64215,25 @@
     <row r="266" ht="43.5" customHeight="1" spans="1:33">
       <c r="A266" s="12"/>
       <c r="B266" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F266" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G266" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H266" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I266" s="22"/>
       <c r="J266" s="21"/>
@@ -63787,7 +64314,7 @@
         <v>168</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H268" s="15" t="s">
         <v>147</v>
@@ -64504,7 +65031,7 @@
         <v>26</v>
       </c>
       <c r="H284" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I284" s="22"/>
       <c r="J284" s="21"/>
@@ -64873,25 +65400,25 @@
     <row r="293" ht="43.5" customHeight="1" spans="1:33">
       <c r="A293" s="12"/>
       <c r="B293" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F293" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I293" s="22"/>
       <c r="J293" s="21"/>
@@ -65834,25 +66361,25 @@
     <row r="320" ht="43.5" customHeight="1" spans="1:33">
       <c r="A320" s="12"/>
       <c r="B320" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E320" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F320" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H320" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I320" s="22"/>
       <c r="J320" s="21"/>
@@ -66025,25 +66552,25 @@
     <row r="325" ht="43.5" customHeight="1" spans="1:33">
       <c r="A325" s="12"/>
       <c r="B325" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F325" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G325" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H325" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I325" s="22"/>
       <c r="J325" s="21"/>
@@ -66230,25 +66757,25 @@
     <row r="330" ht="43.5" customHeight="1" spans="1:33">
       <c r="A330" s="9"/>
       <c r="B330" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E330" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F330" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H330" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I330" s="22"/>
       <c r="J330" s="21"/>
@@ -67016,25 +67543,25 @@
     <row r="352" ht="43.5" customHeight="1" spans="1:33">
       <c r="A352" s="9"/>
       <c r="B352" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F352" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G352" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H352" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I352" s="22"/>
       <c r="J352" s="21"/>
@@ -67452,25 +67979,25 @@
     <row r="364" ht="43.5" customHeight="1" spans="1:33">
       <c r="A364" s="12"/>
       <c r="B364" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F364" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G364" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H364" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I364" s="22"/>
       <c r="J364" s="21"/>
@@ -67713,25 +68240,25 @@
     <row r="371" ht="43.5" customHeight="1" spans="1:33">
       <c r="A371" s="12"/>
       <c r="B371" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F371" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G371" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H371" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I371" s="22"/>
       <c r="J371" s="21"/>
@@ -68044,25 +68571,25 @@
     <row r="380" ht="43.5" customHeight="1" spans="1:33">
       <c r="A380" s="9"/>
       <c r="B380" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E380" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F380" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G380" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H380" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I380" s="22"/>
       <c r="J380" s="21"/>
@@ -68340,25 +68867,25 @@
     <row r="388" ht="43.5" customHeight="1" spans="1:33">
       <c r="A388" s="12"/>
       <c r="B388" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E388" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F388" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G388" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H388" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I388" s="22"/>
       <c r="J388" s="21"/>
@@ -68433,16 +68960,16 @@
         <v>1206043573</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F390" s="17" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
       <c r="G390" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H390" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I390" s="22"/>
       <c r="J390" s="21"/>
@@ -68545,25 +69072,25 @@
     <row r="393" ht="43.5" customHeight="1" spans="1:33">
       <c r="A393" s="9"/>
       <c r="B393" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E393" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F393" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G393" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H393" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I393" s="22"/>
       <c r="J393" s="21"/>
@@ -68736,25 +69263,25 @@
     <row r="398" ht="43.5" customHeight="1" spans="1:33">
       <c r="A398" s="9"/>
       <c r="B398" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E398" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F398" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G398" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H398" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I398" s="22"/>
       <c r="J398" s="21"/>
@@ -68927,25 +69454,25 @@
     <row r="403" ht="43.5" customHeight="1" spans="1:33">
       <c r="A403" s="12"/>
       <c r="B403" s="8" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E403" s="13" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="F403" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G403" s="8" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="H403" s="8" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="I403" s="22"/>
       <c r="J403" s="21"/>
